--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_20_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.2685672815</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.2685672815</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.9347585163904</v>
+        <v>44636.71790538487</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.9347585163904</v>
+        <v>44636.71790538487</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189621707.742566</v>
+        <v>49244020.06253133</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10415.9517058373</v>
+        <v>1165616.843878625</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19623.1015491711</v>
+        <v>2141634.050136385</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28830.25139250491</v>
+        <v>3117651.256394147</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38063.9699533165</v>
+        <v>4093668.462651908</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47297.6885141281</v>
+        <v>5069685.66890967</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56531.40707493971</v>
+        <v>6045702.87516743</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65765.1256357513</v>
+        <v>7021720.081425187</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74998.84419656292</v>
+        <v>7997737.287682945</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84232.5627573745</v>
+        <v>8973754.493940702</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93466.28131818607</v>
+        <v>9949771.70019846</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102699.9998789976</v>
+        <v>10925788.90645622</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>111933.7184398092</v>
+        <v>11901806.11271399</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121167.4370006208</v>
+        <v>12877823.31897176</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130453.4475442985</v>
+        <v>13846921.83395419</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>139739.4580879762</v>
+        <v>14816020.34893663</v>
       </c>
     </row>
   </sheetData>
